--- a/calculator_basic_and_smell.xlsx
+++ b/calculator_basic_and_smell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{97AAE99B-36E9-4B78-B7A6-3A479BB0DF26}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7DCB3656-F247-4B97-A988-4DB8AAB0CAF5}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="5925" windowWidth="17775" windowHeight="13500" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="17535" yWindow="8790" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Symptom</t>
   </si>
@@ -145,20 +145,21 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -221,11 +222,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -243,17 +281,20 @@
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE1F47B-5DA8-43DE-85B3-7C5E3227414A}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,11 +622,11 @@
     <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -594,27 +635,13 @@
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -629,12 +656,13 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="10">
         <v>7.8311240000000004E-2</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D2" s="12"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
@@ -642,12 +670,13 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="10">
         <v>-0.33807526999999998</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D3" s="13"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
@@ -655,12 +684,13 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="10">
         <v>0.29236626999999998</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D4" s="13"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
@@ -668,12 +698,13 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="10">
         <v>0.27425931999999997</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D5" s="13"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
@@ -681,25 +712,27 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="10">
         <v>0.41023812999999998</v>
       </c>
       <c r="C8" s="5"/>
@@ -717,14 +750,19 @@
       <c r="T8" s="2"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="10">
         <v>-1.0824460600000001</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="10">
+        <f>$B$2*D2+$B$3*D3+$B$4*D4+$B$5*D5+(D6-D7)*$B$8+$B$9</f>
+        <v>-1.0824460600000001</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="L9" s="2"/>
@@ -738,43 +776,22 @@
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4">
-        <f>$B$2*D2+$B$3*D3+$B$4*D4+$B$5*D5+(D6-D7)*$B$8+$B$9</f>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="E10" s="4">
-        <f>$B$2*E2+$B$3*E3+$B$4*E4+$B$5*E5+(E6-E7)*$B$8+$B$9</f>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="F10" s="4">
-        <f>$B$2*F2+$B$3*F3+$B$4*F4+$B$5*F5+(F6-F7)*$B$8+$B$9</f>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="G10" s="4">
-        <f>$B$2*G2+$B$3*G3+$B$4*G4+$B$5*G5+(G6-G7)*$B$8+$B$9</f>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="H10" s="4">
-        <f>$B$2*H2+$B$3*H3+$B$4*H4+$B$5*H5+(H6-H7)*$B$8+$B$9</f>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="I10" s="4">
-        <f>$B$2*I2+$B$3*I3+$B$4*I4+$B$5*I5+(I6-I7)*$B$8+$B$9</f>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="J10" s="4">
-        <f>$B$2*J2+$B$3*J3+$B$4*J4+$B$5*J5+(J6-J7)*$B$8+$B$9</f>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="K10" s="11">
-        <f>$B$2*K2+$B$3*K3+$B$4*K4+$B$5*K5+(K6-K7)*$B$8+$B$9</f>
-        <v>-1.0824460600000001</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D10" s="9">
+        <f>$B$11*EXP(D9)/(1+$B$11*EXP(D9))</f>
+        <v>2.8614964891539703E-2</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -785,48 +802,13 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6">
-        <f>B13/(1-B13)</f>
+      <c r="B11" s="11">
+        <f>B12/(1-B12)</f>
         <v>8.6956521739130432E-2</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4">
-        <f>$B$11*EXP(D10)/(1+$B$11*EXP(D10))</f>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="E11" s="4">
-        <f>$B$11*EXP(E10)/(1+$B$11*EXP(E10))</f>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="F11" s="4">
-        <f>$B$11*EXP(F10)/(1+$B$11*EXP(F10))</f>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="G11" s="4">
-        <f>$B$11*EXP(G10)/(1+$B$11*EXP(G10))</f>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="H11" s="4">
-        <f>$B$11*EXP(H10)/(1+$B$11*EXP(H10))</f>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="I11" s="4">
-        <f>$B$11*EXP(I10)/(1+$B$11*EXP(I10))</f>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="J11" s="4">
-        <f>$B$11*EXP(J10)/(1+$B$11*EXP(J10))</f>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="K11" s="11">
-        <f>$B$11*EXP(K10)/(1+$B$11*EXP(K10))</f>
-        <v>2.8614964891539703E-2</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -839,8 +821,14 @@
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -851,13 +839,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="10">
-        <v>0.08</v>
-      </c>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="L13" s="2"/>
@@ -886,15 +868,6 @@
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G16" s="2"/>
@@ -903,10 +876,6 @@
     <row r="17" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/calculator_basic_and_smell.xlsx
+++ b/calculator_basic_and_smell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7DCB3656-F247-4B97-A988-4DB8AAB0CAF5}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{04796CFD-74B8-4681-AD2E-C37A3E997025}"/>
   <bookViews>
-    <workbookView xWindow="17535" yWindow="8790" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="17880" yWindow="9135" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Symptom</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Rate of positive tests</t>
+  </si>
+  <si>
+    <t>Probability</t>
   </si>
 </sst>
 </file>
@@ -130,13 +133,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Calibri"/>
@@ -160,6 +156,13 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -263,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -277,24 +280,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,21 +610,22 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="2" max="2" width="9.140625" style="5"/>
     <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -656,13 +655,13 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>7.8311240000000004E-2</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="10"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
@@ -670,13 +669,13 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>-0.33807526999999998</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="11"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
@@ -684,13 +683,13 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>0.29236626999999998</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="11"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
@@ -698,13 +697,13 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>0.27425931999999997</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="11"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
@@ -712,30 +711,36 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>0.41023812999999998</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8">
+        <f>$B$2*D2+$B$3*D3+$B$4*D4+$B$5*D5+(D6-D7)*$B$8+$B$9</f>
+        <v>-1.0824460600000001</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -750,18 +755,18 @@
       <c r="T8" s="2"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>-1.0824460600000001</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="10">
-        <f>$B$2*D2+$B$3*D3+$B$4*D4+$B$5*D5+(D6-D7)*$B$8+$B$9</f>
-        <v>-1.0824460600000001</v>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9">
+        <f>$B$11*EXP(D8)/(1+$B$11*EXP(D8))</f>
+        <v>2.8614964891539703E-2</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -776,22 +781,22 @@
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="9">
-        <f>$B$11*EXP(D9)/(1+$B$11*EXP(D9))</f>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="D10" s="13" t="str">
+        <f>IF(D9&lt;0.5, "Can not be determined", D9)</f>
+        <v>Can not be determined</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -803,10 +808,10 @@
       <c r="T10" s="2"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <f>B12/(1-B12)</f>
         <v>8.6956521739130432E-2</v>
       </c>
@@ -821,10 +826,10 @@
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>0.08</v>
       </c>
       <c r="G12" s="2"/>

--- a/calculator_basic_and_smell.xlsx
+++ b/calculator_basic_and_smell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{04796CFD-74B8-4681-AD2E-C37A3E997025}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{31D1CE27-5F05-4EE6-B770-B7A0E4F0CFBB}"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="9135" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="6645" yWindow="7275" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,12 +44,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Muscle_ache</t>
-  </si>
-  <si>
-    <t>Lack_of_appetite</t>
-  </si>
-  <si>
     <t>Smell_change_num</t>
   </si>
   <si>
@@ -59,24 +53,12 @@
     <t>Fever</t>
   </si>
   <si>
-    <t>Sore_throat</t>
-  </si>
-  <si>
     <t>Score</t>
   </si>
   <si>
     <t>1 if yes, 0 if no</t>
   </si>
   <si>
-    <t>Smell_before</t>
-  </si>
-  <si>
-    <t>Smell_during</t>
-  </si>
-  <si>
-    <t>scale 1-10</t>
-  </si>
-  <si>
     <t>Answers</t>
   </si>
   <si>
@@ -90,13 +72,31 @@
   </si>
   <si>
     <t>Probability</t>
+  </si>
+  <si>
+    <t>Scale 1-10 (1- no sense of smell, 10 - excellent sence of smell)</t>
+  </si>
+  <si>
+    <t>Smell before illness</t>
+  </si>
+  <si>
+    <t>Smell during illness</t>
+  </si>
+  <si>
+    <t>Lack of appetite</t>
+  </si>
+  <si>
+    <t>Muscle ache</t>
+  </si>
+  <si>
+    <t>Sore throat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +162,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -266,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -293,6 +300,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,14 +620,14 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="5"/>
-    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -632,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -653,93 +663,105 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8">
         <v>7.8311240000000004E-2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B3" s="8">
         <v>-0.33807526999999998</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B4" s="8">
         <v>0.29236626999999998</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B5" s="8">
         <v>0.27425931999999997</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="8">
         <v>0.41023812999999998</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" s="8">
         <f>$B$2*D2+$B$3*D3+$B$4*D4+$B$5*D5+(D6-D7)*$B$8+$B$9</f>
-        <v>-1.0824460600000001</v>
+        <v>2.9165586699999992</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="2"/>
@@ -756,17 +778,17 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="8">
         <v>-1.0824460600000001</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D9" s="9">
-        <f>$B$11*EXP(D8)/(1+$B$11*EXP(D8))</f>
-        <v>2.8614964891539703E-2</v>
+        <f>$B$12*EXP(D8)/(1+$B$12*EXP(D8))</f>
+        <v>0.59648249510568441</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -784,13 +806,13 @@
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D10" s="13" t="str">
-        <f>IF(D9&lt;0.5, "Can not be determined", D9)</f>
-        <v>Can not be determined</v>
-      </c>
-      <c r="E10" s="8"/>
+        <f>IF(D9&lt;0.5,"Can not be determined",_xlfn.CONCAT(ROUND(D9*100,0), "%"))</f>
+        <v>60%</v>
+      </c>
+      <c r="E10" s="14"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -809,7 +831,7 @@
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9">
         <f>B12/(1-B12)</f>
@@ -827,7 +849,7 @@
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7">
         <v>0.08</v>

--- a/calculator_basic_and_smell.xlsx
+++ b/calculator_basic_and_smell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{31D1CE27-5F05-4EE6-B770-B7A0E4F0CFBB}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6389D391-97F4-45D6-B983-DF4C3CE3A5DF}"/>
   <bookViews>
     <workbookView xWindow="6645" yWindow="7275" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,9 +671,7 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
+      <c r="D2" s="10"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
@@ -687,9 +685,7 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
+      <c r="D3" s="11"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
@@ -703,9 +699,7 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
+      <c r="D4" s="11"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
@@ -719,9 +713,7 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
+      <c r="D5" s="11"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
@@ -733,9 +725,7 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11">
-        <v>10</v>
-      </c>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -745,9 +735,7 @@
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -761,7 +749,7 @@
       </c>
       <c r="D8" s="8">
         <f>$B$2*D2+$B$3*D3+$B$4*D4+$B$5*D5+(D6-D7)*$B$8+$B$9</f>
-        <v>2.9165586699999992</v>
+        <v>-1.0824460600000001</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="2"/>
@@ -788,7 +776,7 @@
       </c>
       <c r="D9" s="9">
         <f>$B$12*EXP(D8)/(1+$B$12*EXP(D8))</f>
-        <v>0.59648249510568441</v>
+        <v>2.6386170848412487E-2</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -810,7 +798,7 @@
       </c>
       <c r="D10" s="13" t="str">
         <f>IF(D9&lt;0.5,"Can not be determined",_xlfn.CONCAT(ROUND(D9*100,0), "%"))</f>
-        <v>60%</v>
+        <v>Can not be determined</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="8"/>

--- a/calculator_basic_and_smell.xlsx
+++ b/calculator_basic_and_smell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6389D391-97F4-45D6-B983-DF4C3CE3A5DF}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FB9D3EB9-D6CA-460D-AFAC-79B3F0E6E589}"/>
   <bookViews>
     <workbookView xWindow="6645" yWindow="7275" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,8 +797,8 @@
         <v>9</v>
       </c>
       <c r="D10" s="13" t="str">
-        <f>IF(D9&lt;0.5,"Can not be determined",_xlfn.CONCAT(ROUND(D9*100,0), "%"))</f>
-        <v>Can not be determined</v>
+        <f>IF(D9&lt;0.5,"Cannot be determined",_xlfn.CONCAT(ROUND(D9*100,0), "%"))</f>
+        <v>Cannot be determined</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="8"/>

--- a/calculator_basic_and_smell.xlsx
+++ b/calculator_basic_and_smell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FB9D3EB9-D6CA-460D-AFAC-79B3F0E6E589}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1CE219B6-D31A-4344-BDBC-F91111D559D9}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="7275" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="2865" yWindow="10890" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Symptom</t>
   </si>
@@ -90,13 +90,22 @@
   </si>
   <si>
     <t>Sore throat</t>
+  </si>
+  <si>
+    <t>Calculators for probability to be positive to COVID-19 based on specific symptoms, according to Karni, Klein et al (link to medrxiv)</t>
+  </si>
+  <si>
+    <t>Low probability does NOT mean that the patient does not have COVID-19! High probability means you are very likely to have COVID-19.</t>
+  </si>
+  <si>
+    <t>Calculator 2 - Basic and smell (quantitative)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +182,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -273,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -288,10 +310,6 @@
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -302,6 +320,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE1F47B-5DA8-43DE-85B3-7C5E3227414A}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,217 +663,142 @@
     <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="8">
-        <v>7.8311240000000004E-2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="8">
-        <v>-0.33807526999999998</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0.29236626999999998</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0.27425931999999997</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>7.8311240000000004E-2</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-0.33807526999999998</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0.41023812999999998</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="8">
-        <f>$B$2*D2+$B$3*D3+$B$4*D4+$B$5*D5+(D6-D7)*$B$8+$B$9</f>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="E8" s="3"/>
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.29236626999999998</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="8">
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="9">
-        <f>$B$12*EXP(D8)/(1+$B$12*EXP(D8))</f>
-        <v>2.6386170848412487E-2</v>
-      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.27425931999999997</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="13" t="str">
-        <f>IF(D9&lt;0.5,"Cannot be determined",_xlfn.CONCAT(ROUND(D9*100,0), "%"))</f>
-        <v>Cannot be determined</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9">
-        <f>B12/(1-B12)</f>
-        <v>8.6956521739130432E-2</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0.08</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.41023812999999998</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6">
+        <f>$B$6*D6+$B$7*D7+$B$8*D8+$B$9*D9+(D10-D11)*$B$12+$B$13</f>
+        <v>-1.0824460600000001</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="L12" s="2"/>
@@ -854,7 +811,20 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6">
+        <v>-1.0824460600000001</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7">
+        <f>$A$17*EXP(D12)/(1+$A$17*EXP(D12))</f>
+        <v>2.6386170848412487E-2</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="L13" s="2"/>
@@ -867,9 +837,23 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+    <row r="14" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="11" t="str">
+        <f>_xlfn.CONCAT(ROUND(D13*100,0), "%")</f>
+        <v>3%</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -880,19 +864,88 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7">
+        <f>B16/(1-B16)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="16"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="B17" s="18"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/calculator_basic_and_smell.xlsx
+++ b/calculator_basic_and_smell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1CE219B6-D31A-4344-BDBC-F91111D559D9}"/>
+  <xr:revisionPtr revIDLastSave="237" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{33D33EAA-E630-4448-BB91-3B7A977CDE80}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="10890" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="1620" yWindow="9645" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,10 +95,10 @@
     <t>Calculators for probability to be positive to COVID-19 based on specific symptoms, according to Karni, Klein et al (link to medrxiv)</t>
   </si>
   <si>
-    <t>Low probability does NOT mean that the patient does not have COVID-19! High probability means you are very likely to have COVID-19.</t>
-  </si>
-  <si>
     <t>Calculator 2 - Basic and smell (quantitative)</t>
+  </si>
+  <si>
+    <t>Low probability does NOT mean that the patient does not have COVID-19! High probability means high probability for COVID-19.</t>
   </si>
 </sst>
 </file>
@@ -323,17 +323,17 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE1F47B-5DA8-43DE-85B3-7C5E3227414A}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,12 +670,12 @@
     </row>
     <row r="2" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -795,8 +795,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="6">
-        <f>$B$6*D6+$B$7*D7+$B$8*D8+$B$9*D9+(D10-D11)*$B$12+$B$13</f>
-        <v>-1.0824460600000001</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3"/>
       <c r="G12" s="2"/>
@@ -823,7 +822,7 @@
       </c>
       <c r="D13" s="7">
         <f>$A$17*EXP(D12)/(1+$A$17*EXP(D12))</f>
-        <v>2.6386170848412487E-2</v>
+        <v>0.17861949588656617</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -844,8 +843,8 @@
         <v>9</v>
       </c>
       <c r="D14" s="11" t="str">
-        <f>_xlfn.CONCAT(ROUND(D13*100,0), "%")</f>
-        <v>3%</v>
+        <f>IF(AND(ISBLANK(D6), ISBLANK(D7), ISBLANK(D8), ISBLANK(D9), ISBLANK(D10), ISBLANK(D11)),"",_xlfn.CONCAT(ROUND(D13*100,0), "%"))</f>
+        <v/>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="6"/>
@@ -872,6 +871,10 @@
         <f>B16/(1-B16)</f>
         <v>0</v>
       </c>
+      <c r="D15" t="str">
+        <f>IF(AND(ISBLANK(D6), ISBLANK(D7), ISBLANK(D8), ISBLANK(D9), ISBLANK(D10), ISBLANK(D11)),"",_xlfn.CONCAT(ROUND(D13*100,0), "%"))</f>
+        <v/>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -883,10 +886,10 @@
       <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="18"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="L16" s="2"/>
@@ -900,10 +903,10 @@
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+      <c r="A17" s="15">
         <v>0.08</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="16"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="L17" s="2"/>

--- a/calculator_basic_and_smell.xlsx
+++ b/calculator_basic_and_smell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{33D33EAA-E630-4448-BB91-3B7A977CDE80}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ECF21758-FDBB-4A46-9125-749B71DBFD14}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="9645" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="13275" yWindow="8610" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -652,7 +652,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +843,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="11" t="str">
-        <f>IF(AND(ISBLANK(D6), ISBLANK(D7), ISBLANK(D8), ISBLANK(D9), ISBLANK(D10), ISBLANK(D11)),"",_xlfn.CONCAT(ROUND(D13*100,0), "%"))</f>
+        <f>IF(OR(ISBLANK(D6), ISBLANK(D7), ISBLANK(D8), ISBLANK(D9), ISBLANK(D10), ISBLANK(D11)),"",_xlfn.CONCAT(ROUND(D13*100,0), "%"))</f>
         <v/>
       </c>
       <c r="E14" s="12"/>

--- a/calculator_basic_and_smell.xlsx
+++ b/calculator_basic_and_smell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="238" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ECF21758-FDBB-4A46-9125-749B71DBFD14}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{318ABC73-E106-42C0-B226-7050177BEDD9}"/>
   <bookViews>
-    <workbookView xWindow="13275" yWindow="8610" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="18945" yWindow="9480" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -652,7 +652,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,10 +871,6 @@
         <f>B16/(1-B16)</f>
         <v>0</v>
       </c>
-      <c r="D15" t="str">
-        <f>IF(AND(ISBLANK(D6), ISBLANK(D7), ISBLANK(D8), ISBLANK(D9), ISBLANK(D10), ISBLANK(D11)),"",_xlfn.CONCAT(ROUND(D13*100,0), "%"))</f>
-        <v/>
-      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>

--- a/calculator_basic_and_smell.xlsx
+++ b/calculator_basic_and_smell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="246" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{318ABC73-E106-42C0-B226-7050177BEDD9}"/>
+  <xr:revisionPtr revIDLastSave="275" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{248BB1F5-9DC1-4A12-87F0-1E4CA3E0837E}"/>
   <bookViews>
-    <workbookView xWindow="18945" yWindow="9480" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="375" yWindow="10260" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +195,12 @@
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -314,7 +320,6 @@
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -323,6 +328,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -652,7 +658,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,17 +670,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -718,7 +724,7 @@
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="14"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
@@ -732,7 +738,7 @@
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="8"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
@@ -746,7 +752,7 @@
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="8"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
@@ -760,7 +766,7 @@
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="8"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
@@ -772,7 +778,7 @@
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -782,7 +788,7 @@
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -795,7 +801,8 @@
         <v>6</v>
       </c>
       <c r="D12" s="6">
-        <v>1</v>
+        <f>$B$6*D6+$B$7*D7+$B$8*D8+$B$9*D9+(D10-D11)*$B$12+$B$13</f>
+        <v>-1.0824460600000001</v>
       </c>
       <c r="E12" s="3"/>
       <c r="G12" s="2"/>
@@ -822,7 +829,7 @@
       </c>
       <c r="D13" s="7">
         <f>$A$17*EXP(D12)/(1+$A$17*EXP(D12))</f>
-        <v>0.17861949588656617</v>
+        <v>2.6386170848412487E-2</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -842,11 +849,11 @@
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="11" t="str">
+      <c r="D14" s="10" t="str">
         <f>IF(OR(ISBLANK(D6), ISBLANK(D7), ISBLANK(D8), ISBLANK(D9), ISBLANK(D10), ISBLANK(D11)),"",_xlfn.CONCAT(ROUND(D13*100,0), "%"))</f>
         <v/>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>

--- a/calculator_basic_and_smell.xlsx
+++ b/calculator_basic_and_smell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="275" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{248BB1F5-9DC1-4A12-87F0-1E4CA3E0837E}"/>
+  <xr:revisionPtr revIDLastSave="303" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{177D757B-913D-4F1A-BDA9-33A3E0F132AB}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="10260" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="990" yWindow="9795" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,13 +171,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -301,16 +294,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -323,12 +313,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -658,29 +645,29 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="5"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
     <col min="3" max="3" width="50.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -688,7 +675,7 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -718,13 +705,13 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>7.8311240000000004E-2</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="12"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
@@ -732,13 +719,13 @@
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>-0.33807526999999998</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="7"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
@@ -746,13 +733,13 @@
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>0.29236626999999998</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
@@ -760,13 +747,13 @@
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>0.27425931999999997</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="7"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
@@ -774,38 +761,48 @@
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>0.41023812999999998</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <f>$B$6*D6+$B$7*D7+$B$8*D8+$B$9*D9+(D10-D11)*$B$12+$B$13</f>
         <v>-1.0824460600000001</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="G12" s="2"/>
+      <c r="E12" s="5">
+        <f t="shared" ref="E12:G12" si="0">$B$6*E6+$B$7*E7+$B$8*E8+$B$9*E9+(E10-E11)*$B$12+$B$13</f>
+        <v>-1.0824460600000001</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0824460600000001</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0824460600000001</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -818,20 +815,31 @@
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>-1.0824460600000001</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <f>$A$17*EXP(D12)/(1+$A$17*EXP(D12))</f>
         <v>2.6386170848412487E-2</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="E13" s="6">
+        <f t="shared" ref="E13:G13" si="1">$A$17*EXP(E12)/(1+$A$17*EXP(E12))</f>
+        <v>2.6386170848412487E-2</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6386170848412487E-2</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6386170848412487E-2</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -844,22 +852,31 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="10" t="str">
+      <c r="D14" s="9" t="str">
         <f>IF(OR(ISBLANK(D6), ISBLANK(D7), ISBLANK(D8), ISBLANK(D9), ISBLANK(D10), ISBLANK(D11)),"",_xlfn.CONCAT(ROUND(D13*100,0), "%"))</f>
         <v/>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="E14" t="str">
+        <f t="shared" ref="E14:G14" si="2">IF(OR(ISBLANK(E6), ISBLANK(E7), ISBLANK(E8), ISBLANK(E9), ISBLANK(E10), ISBLANK(E11)),"",_xlfn.CONCAT(ROUND(E13*100,0), "%"))</f>
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -871,12 +888,12 @@
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="7">
-        <f>B16/(1-B16)</f>
-        <v>0</v>
+      <c r="B15" s="6">
+        <f>A17/(1-A17)</f>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -889,10 +906,10 @@
       <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="16"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="L16" s="2"/>
@@ -906,10 +923,10 @@
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+      <c r="A17" s="13">
         <v>0.08</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="14"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="L17" s="2"/>

--- a/calculator_basic_and_smell.xlsx
+++ b/calculator_basic_and_smell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="303" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{177D757B-913D-4F1A-BDA9-33A3E0F132AB}"/>
+  <xr:revisionPtr revIDLastSave="316" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{69BF5BAF-B10F-442C-B74F-DC8DBD4484C4}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="9795" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -642,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE1F47B-5DA8-43DE-85B3-7C5E3227414A}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,22 +656,22 @@
     <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -715,7 +715,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -743,7 +743,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -757,7 +757,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -767,7 +767,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -777,7 +777,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
@@ -792,7 +792,7 @@
         <v>-1.0824460600000001</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" ref="E12:G12" si="0">$B$6*E6+$B$7*E7+$B$8*E8+$B$9*E9+(E10-E11)*$B$12+$B$13</f>
+        <f t="shared" ref="E12:Z12" si="0">$B$6*E6+$B$7*E7+$B$8*E8+$B$9*E9+(E10-E11)*$B$12+$B$13</f>
         <v>-1.0824460600000001</v>
       </c>
       <c r="F12" s="5">
@@ -803,18 +803,84 @@
         <f t="shared" si="0"/>
         <v>-1.0824460600000001</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0824460600000001</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0824460600000001</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0824460600000001</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0824460600000001</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0824460600000001</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0824460600000001</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0824460600000001</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0824460600000001</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0824460600000001</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0824460600000001</v>
+      </c>
+      <c r="R12" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0824460600000001</v>
+      </c>
+      <c r="S12" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0824460600000001</v>
+      </c>
+      <c r="T12" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0824460600000001</v>
+      </c>
+      <c r="U12" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0824460600000001</v>
+      </c>
+      <c r="V12" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0824460600000001</v>
+      </c>
+      <c r="W12" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0824460600000001</v>
+      </c>
+      <c r="X12" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0824460600000001</v>
+      </c>
+      <c r="Y12" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0824460600000001</v>
+      </c>
+      <c r="Z12" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0824460600000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -825,33 +891,99 @@
         <v>12</v>
       </c>
       <c r="D13" s="6">
-        <f>$A$17*EXP(D12)/(1+$A$17*EXP(D12))</f>
-        <v>2.6386170848412487E-2</v>
+        <f>$B$15*EXP(D12)/(1+$B$15*EXP(D12))</f>
+        <v>2.8614964891539703E-2</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" ref="E13:G13" si="1">$A$17*EXP(E12)/(1+$A$17*EXP(E12))</f>
-        <v>2.6386170848412487E-2</v>
+        <f t="shared" ref="E13:Z13" si="1">$B$15*EXP(E12)/(1+$B$15*EXP(E12))</f>
+        <v>2.8614964891539703E-2</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="1"/>
-        <v>2.6386170848412487E-2</v>
+        <v>2.8614964891539703E-2</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
-        <v>2.6386170848412487E-2</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.8614964891539703E-2</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8614964891539703E-2</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8614964891539703E-2</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8614964891539703E-2</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8614964891539703E-2</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8614964891539703E-2</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8614964891539703E-2</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8614964891539703E-2</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8614964891539703E-2</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8614964891539703E-2</v>
+      </c>
+      <c r="Q13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8614964891539703E-2</v>
+      </c>
+      <c r="R13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8614964891539703E-2</v>
+      </c>
+      <c r="S13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8614964891539703E-2</v>
+      </c>
+      <c r="T13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8614964891539703E-2</v>
+      </c>
+      <c r="U13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8614964891539703E-2</v>
+      </c>
+      <c r="V13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8614964891539703E-2</v>
+      </c>
+      <c r="W13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8614964891539703E-2</v>
+      </c>
+      <c r="X13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8614964891539703E-2</v>
+      </c>
+      <c r="Y13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8614964891539703E-2</v>
+      </c>
+      <c r="Z13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8614964891539703E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="3" t="s">
@@ -861,33 +993,96 @@
         <f>IF(OR(ISBLANK(D6), ISBLANK(D7), ISBLANK(D8), ISBLANK(D9), ISBLANK(D10), ISBLANK(D11)),"",_xlfn.CONCAT(ROUND(D13*100,0), "%"))</f>
         <v/>
       </c>
-      <c r="E14" t="str">
-        <f t="shared" ref="E14:G14" si="2">IF(OR(ISBLANK(E6), ISBLANK(E7), ISBLANK(E8), ISBLANK(E9), ISBLANK(E10), ISBLANK(E11)),"",_xlfn.CONCAT(ROUND(E13*100,0), "%"))</f>
-        <v/>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="2" t="str">
+        <f t="shared" ref="E14:Z14" si="2">IF(OR(ISBLANK(E6), ISBLANK(E7), ISBLANK(E8), ISBLANK(E9), ISBLANK(E10), ISBLANK(E11)),"",_xlfn.CONCAT(ROUND(E13*100,0), "%"))</f>
+        <v/>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -905,7 +1100,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>11</v>
       </c>

--- a/calculator_basic_and_smell.xlsx
+++ b/calculator_basic_and_smell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="316" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{69BF5BAF-B10F-442C-B74F-DC8DBD4484C4}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="13_ncr:1_{ABA6B18E-1388-48C5-83D4-7AE7C11363E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6E9262E0-5638-427B-B9EB-1EE78D68936F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="11610" yWindow="4380" windowWidth="17685" windowHeight="11655" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,20 +92,20 @@
     <t>Sore throat</t>
   </si>
   <si>
-    <t>Calculators for probability to be positive to COVID-19 based on specific symptoms, according to Karni, Klein et al (link to medrxiv)</t>
-  </si>
-  <si>
     <t>Calculator 2 - Basic and smell (quantitative)</t>
   </si>
   <si>
     <t>Low probability does NOT mean that the patient does not have COVID-19! High probability means high probability for COVID-19.</t>
+  </si>
+  <si>
+    <t>Calculators for probability to be positive to COVID-19 based on specific symptoms, according to Karni, Klein et al (https://www.medrxiv.org/content/10.1101/2020.07.30.20164327v1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +171,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -294,13 +301,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -313,9 +323,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -642,40 +655,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE1F47B-5DA8-43DE-85B3-7C5E3227414A}">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="2" max="2" width="9.140625" style="5"/>
     <col min="3" max="3" width="50.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="3" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -701,394 +714,169 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>7.8311240000000004E-2</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="14"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>-0.33807526999999998</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="8"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>0.29236626999999998</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="8"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>0.27425931999999997</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="8"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>0.41023812999999998</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <f>$B$6*D6+$B$7*D7+$B$8*D8+$B$9*D9+(D10-D11)*$B$12+$B$13</f>
         <v>-1.0824460600000001</v>
       </c>
-      <c r="E12" s="5">
-        <f t="shared" ref="E12:Z12" si="0">$B$6*E6+$B$7*E7+$B$8*E8+$B$9*E9+(E10-E11)*$B$12+$B$13</f>
+      <c r="E12" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6">
         <v>-1.0824460600000001</v>
       </c>
-      <c r="F12" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="K12" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="L12" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="M12" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="N12" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="O12" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="P12" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="Q12" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="R12" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="S12" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="T12" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="U12" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="V12" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="W12" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="X12" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="Y12" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="Z12" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.0824460600000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="5">
-        <v>-1.0824460600000001</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="6">
-        <f>$B$15*EXP(D12)/(1+$B$15*EXP(D12))</f>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="E13" s="6">
-        <f t="shared" ref="E13:Z13" si="1">$B$15*EXP(E12)/(1+$B$15*EXP(E12))</f>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="I13" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="J13" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="K13" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="L13" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="M13" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="N13" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="O13" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="P13" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="Q13" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="R13" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="S13" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="T13" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="U13" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="V13" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="W13" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="X13" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="Y13" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8614964891539703E-2</v>
-      </c>
-      <c r="Z13" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8614964891539703E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="3" t="s">
+      <c r="D13" s="7">
+        <f>$A$17*EXP(D12)/(1+$A$17*EXP(D12))</f>
+        <v>2.6386170848412487E-2</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="9" t="str">
+      <c r="D14" s="10" t="str">
         <f>IF(OR(ISBLANK(D6), ISBLANK(D7), ISBLANK(D8), ISBLANK(D9), ISBLANK(D10), ISBLANK(D11)),"",_xlfn.CONCAT(ROUND(D13*100,0), "%"))</f>
         <v/>
       </c>
-      <c r="E14" s="2" t="str">
-        <f t="shared" ref="E14:Z14" si="2">IF(OR(ISBLANK(E6), ISBLANK(E7), ISBLANK(E8), ISBLANK(E9), ISBLANK(E10), ISBLANK(E11)),"",_xlfn.CONCAT(ROUND(E13*100,0), "%"))</f>
-        <v/>
-      </c>
-      <c r="F14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="T14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="U14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="W14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="X14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Y14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Z14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="6">
-        <f>A17/(1-A17)</f>
-        <v>8.6956521739130432E-2</v>
+      <c r="B15" s="7">
+        <f>B16/(1-B16)</f>
+        <v>0</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1100,11 +888,11 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="18"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="L16" s="2"/>
@@ -1118,10 +906,10 @@
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="15">
         <v>0.08</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="16"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="L17" s="2"/>
